--- a/Excel/Sci.xlsx
+++ b/Excel/Sci.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkcom\IdeaProjects\DataDrivenTesting\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10D7C76-5739-4B21-8684-36CECCB6A47F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04AA76-2397-412E-9AF1-DFDE5E42D38F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" xr2:uid="{442A4671-A753-4D32-B955-79EC4BB6B34E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="370">
   <si>
     <t>คำนำหน้า</t>
   </si>
@@ -165,20 +165,983 @@
     <t>1429900541531</t>
   </si>
   <si>
+    <t>1429900541532</t>
+  </si>
+  <si>
+    <t>1429900541535</t>
+  </si>
+  <si>
+    <t>0821505710</t>
+  </si>
+  <si>
+    <t>0999999999</t>
+  </si>
+  <si>
+    <t>ธันวาคม</t>
+  </si>
+  <si>
+    <t>กุมภาพันธ์</t>
+  </si>
+  <si>
+    <t>มกราคม</t>
+  </si>
+  <si>
+    <t>นาง</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>กรกฎาคม</t>
+  </si>
+  <si>
+    <t>2634682955220</t>
+  </si>
+  <si>
+    <t>Nub565206</t>
+  </si>
+  <si>
+    <t>0888272025</t>
+  </si>
+  <si>
+    <t>nubtong@gmail.com</t>
+  </si>
+  <si>
+    <t>อุดรธานี</t>
+  </si>
+  <si>
+    <t>กะทู้</t>
+  </si>
+  <si>
+    <t>หมากแข้ง</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>นาย</t>
+  </si>
+  <si>
+    <t>อนุชา</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Anucha</t>
+  </si>
+  <si>
+    <t>พฤศจิกายน</t>
+  </si>
+  <si>
+    <t>2856532634475</t>
+  </si>
+  <si>
+    <t>Anu808944</t>
+  </si>
+  <si>
+    <t>0816956700</t>
+  </si>
+  <si>
+    <t>anucha@gmail.com</t>
+  </si>
+  <si>
+    <t>นครราชสีมา</t>
+  </si>
+  <si>
+    <t>ลาดพร้าว</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>มั่งมี</t>
+  </si>
+  <si>
+    <t>Mangmee</t>
+  </si>
+  <si>
+    <t>พฤษภาคม</t>
+  </si>
+  <si>
+    <t>7285531767576</t>
+  </si>
+  <si>
+    <t>Anu255220</t>
+  </si>
+  <si>
+    <t>0842026830</t>
+  </si>
+  <si>
+    <t>ขอนแก่น</t>
+  </si>
+  <si>
+    <t>บางกะปิ</t>
+  </si>
+  <si>
+    <t>บ้านสวน</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>ทองดี</t>
+  </si>
+  <si>
+    <t>Thongdee</t>
+  </si>
+  <si>
+    <t>6857263368633</t>
+  </si>
+  <si>
+    <t>Boo189512</t>
+  </si>
+  <si>
+    <t>0881722634</t>
+  </si>
+  <si>
+    <t>boonruksa@gmail.com</t>
+  </si>
+  <si>
+    <t>ท่าวัง</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>พิมพ์ใจ</t>
+  </si>
+  <si>
+    <t>พงษ์ศรี</t>
+  </si>
+  <si>
+    <t>Pimjai</t>
+  </si>
+  <si>
+    <t>Pongsri</t>
+  </si>
+  <si>
+    <t>ตุลาคม</t>
+  </si>
+  <si>
+    <t>3863338925963</t>
+  </si>
+  <si>
+    <t>Pim632784</t>
+  </si>
+  <si>
+    <t>0873922952</t>
+  </si>
+  <si>
+    <t>pimjai@gmail.com</t>
+  </si>
+  <si>
+    <t>คอหงส์</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>ศิริวัฒน์</t>
+  </si>
+  <si>
+    <t>Siriwat</t>
+  </si>
+  <si>
+    <t>เมษายน</t>
+  </si>
+  <si>
+    <t>8943687349661</t>
+  </si>
+  <si>
+    <t>Boo492240</t>
+  </si>
+  <si>
+    <t>0881390434</t>
+  </si>
+  <si>
+    <t>นครศรีธรรมราช</t>
+  </si>
+  <si>
+    <t>ศรีราชา</t>
+  </si>
+  <si>
+    <t>ตลาดใหญ่</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>1659986166943</t>
+  </si>
+  <si>
+    <t>Pim274746</t>
+  </si>
+  <si>
+    <t>0846004503</t>
+  </si>
+  <si>
+    <t>สี่พระยา</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>กันยายน</t>
+  </si>
+  <si>
+    <t>5231457975070</t>
+  </si>
+  <si>
+    <t>Nub485717</t>
+  </si>
+  <si>
+    <t>0866850509</t>
+  </si>
+  <si>
+    <t>สงขลา</t>
+  </si>
+  <si>
+    <t>หาดใหญ่</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>วัฒนกุล</t>
+  </si>
+  <si>
+    <t>Wattanakul</t>
+  </si>
+  <si>
+    <t>6567836163063</t>
+  </si>
+  <si>
+    <t>Pim580856</t>
+  </si>
+  <si>
+    <t>0886918253</t>
+  </si>
+  <si>
+    <t>ชลบุรี</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>8678810016824</t>
+  </si>
+  <si>
+    <t>Nat926037</t>
+  </si>
+  <si>
+    <t>0824704824</t>
+  </si>
+  <si>
+    <t>natthakan@gmail.com</t>
+  </si>
+  <si>
+    <t>สุเทพ</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>สิงหาคม</t>
+  </si>
+  <si>
+    <t>5764869827636</t>
+  </si>
+  <si>
+    <t>Anu520301</t>
+  </si>
+  <si>
+    <t>0837615603</t>
+  </si>
+  <si>
+    <t>ตลาด</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>ศิริพร</t>
+  </si>
+  <si>
+    <t>Siriporn</t>
+  </si>
+  <si>
+    <t>3590548102278</t>
+  </si>
+  <si>
+    <t>Sir349989</t>
+  </si>
+  <si>
+    <t>0879592626</t>
+  </si>
+  <si>
+    <t>siriporn@gmail.com</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>กาญจนเดชา</t>
+  </si>
+  <si>
+    <t>Kanjandecha</t>
+  </si>
+  <si>
+    <t>7838559393953</t>
+  </si>
+  <si>
+    <t>Nub353647</t>
+  </si>
+  <si>
+    <t>0858952247</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>4683345589998</t>
+  </si>
+  <si>
+    <t>Anu159937</t>
+  </si>
+  <si>
+    <t>0896658596</t>
+  </si>
+  <si>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>1902600057040</t>
+  </si>
+  <si>
+    <t>Pim446817</t>
+  </si>
+  <si>
+    <t>0873471004</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>จันทร์เพ็ญ</t>
+  </si>
+  <si>
+    <t>Janphen</t>
+  </si>
+  <si>
+    <t>1230987133358</t>
+  </si>
+  <si>
+    <t>Nat410082</t>
+  </si>
+  <si>
+    <t>0856726912</t>
+  </si>
+  <si>
+    <t>จตุจักร</t>
+  </si>
+  <si>
+    <t>ในเมือง</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>จิราภรณ์</t>
+  </si>
+  <si>
+    <t>Jiraporn</t>
+  </si>
+  <si>
+    <t>9999203156139</t>
+  </si>
+  <si>
+    <t>Jir791322</t>
+  </si>
+  <si>
+    <t>0898925761</t>
+  </si>
+  <si>
+    <t>jiraporn@gmail.com</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>7160641520772</t>
+  </si>
+  <si>
+    <t>Nat272892</t>
+  </si>
+  <si>
+    <t>0873800563</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>กิตติพงษ์</t>
+  </si>
+  <si>
+    <t>Kittipong</t>
+  </si>
+  <si>
+    <t>มิถุนายน</t>
+  </si>
+  <si>
+    <t>4041488126445</t>
+  </si>
+  <si>
+    <t>Kit920957</t>
+  </si>
+  <si>
+    <t>0829206420</t>
+  </si>
+  <si>
+    <t>kittipong@gmail.com</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>อภิสรา</t>
+  </si>
+  <si>
+    <t>Apisara</t>
+  </si>
+  <si>
+    <t>3513186757900</t>
+  </si>
+  <si>
+    <t>Api572087</t>
+  </si>
+  <si>
+    <t>0863284502</t>
+  </si>
+  <si>
+    <t>apisara@gmail.com</t>
+  </si>
+  <si>
+    <t>กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>5028129723928</t>
+  </si>
+  <si>
+    <t>Pim184536</t>
+  </si>
+  <si>
+    <t>0871267744</t>
+  </si>
+  <si>
+    <t>ภูเก็ต</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>4954346804847</t>
+  </si>
+  <si>
+    <t>Jir632516</t>
+  </si>
+  <si>
+    <t>0845216976</t>
+  </si>
+  <si>
+    <t>เชียงใหม่</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>มีนาคม</t>
+  </si>
+  <si>
+    <t>2006329128080</t>
+  </si>
+  <si>
+    <t>Boo595818</t>
+  </si>
+  <si>
+    <t>0855016597</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>2184358867105</t>
+  </si>
+  <si>
+    <t>Api142447</t>
+  </si>
+  <si>
+    <t>0867249387</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>2001515242958</t>
+  </si>
+  <si>
+    <t>Pim567971</t>
+  </si>
+  <si>
+    <t>0875957128</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>3271436334415</t>
+  </si>
+  <si>
+    <t>Anu239349</t>
+  </si>
+  <si>
+    <t>0871392456</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>1319735338716</t>
+  </si>
+  <si>
+    <t>Anu646967</t>
+  </si>
+  <si>
+    <t>0863046207</t>
+  </si>
+  <si>
+    <t>สุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>1977598686601</t>
+  </si>
+  <si>
+    <t>Anu346876</t>
+  </si>
+  <si>
+    <t>0869583734</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>8046425302161</t>
+  </si>
+  <si>
+    <t>Nub945305</t>
+  </si>
+  <si>
+    <t>0867007114</t>
+  </si>
+  <si>
+    <t>หัวทะเล</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>6509792523614</t>
+  </si>
+  <si>
+    <t>Anu789316</t>
+  </si>
+  <si>
+    <t>0829914593</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>สมชาย</t>
+  </si>
+  <si>
+    <t>Somchai</t>
+  </si>
+  <si>
+    <t>9120584503533</t>
+  </si>
+  <si>
+    <t>Som454405</t>
+  </si>
+  <si>
+    <t>0875164936</t>
+  </si>
+  <si>
+    <t>somchai@gmail.com</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>3300395429543</t>
+  </si>
+  <si>
+    <t>Sir966483</t>
+  </si>
+  <si>
+    <t>0817708713</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>8214124055106</t>
+  </si>
+  <si>
+    <t>Nub963165</t>
+  </si>
+  <si>
+    <t>0811747984</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>3341316515857</t>
+  </si>
+  <si>
+    <t>Pim103209</t>
+  </si>
+  <si>
+    <t>0888314572</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>6116376222444</t>
+  </si>
+  <si>
+    <t>Som953161</t>
+  </si>
+  <si>
+    <t>0842654514</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>2797862652441</t>
+  </si>
+  <si>
+    <t>Api141691</t>
+  </si>
+  <si>
+    <t>0815603190</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>4052837316682</t>
+  </si>
+  <si>
+    <t>Nub202748</t>
+  </si>
+  <si>
+    <t>0821589214</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>5404310935466</t>
+  </si>
+  <si>
+    <t>Kit480749</t>
+  </si>
+  <si>
+    <t>0881970242</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>2175182614750</t>
+  </si>
+  <si>
+    <t>Api221183</t>
+  </si>
+  <si>
+    <t>0815152313</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>2040599555353</t>
+  </si>
+  <si>
+    <t>Nub119484</t>
+  </si>
+  <si>
+    <t>0878851860</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>5548190327118</t>
+  </si>
+  <si>
+    <t>Jir797016</t>
+  </si>
+  <si>
+    <t>0871040795</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>5833337927070</t>
+  </si>
+  <si>
+    <t>Anu179448</t>
+  </si>
+  <si>
+    <t>0862526302</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>9864832889414</t>
+  </si>
+  <si>
+    <t>Nat803463</t>
+  </si>
+  <si>
+    <t>0859427662</t>
+  </si>
+  <si>
+    <t>TC47</t>
+  </si>
+  <si>
+    <t>5535867354612</t>
+  </si>
+  <si>
+    <t>Pim367938</t>
+  </si>
+  <si>
+    <t>0879959179</t>
+  </si>
+  <si>
+    <t>TC48</t>
+  </si>
+  <si>
+    <t>1112356298344</t>
+  </si>
+  <si>
+    <t>Kit498341</t>
+  </si>
+  <si>
+    <t>0867589826</t>
+  </si>
+  <si>
+    <t>TC49</t>
+  </si>
+  <si>
+    <t>3418988394833</t>
+  </si>
+  <si>
+    <t>Sir663173</t>
+  </si>
+  <si>
+    <t>0872025203</t>
+  </si>
+  <si>
+    <t>TC50</t>
+  </si>
+  <si>
+    <t>3386247668482</t>
+  </si>
+  <si>
+    <t>Boo255393</t>
+  </si>
+  <si>
+    <t>0859973948</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>1429900541532</t>
-  </si>
-  <si>
-    <t>1429900541535</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>0777777777</t>
+  </si>
+  <si>
+    <t>2547</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +1172,21 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +1196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -226,12 +1204,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,10 +1241,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ 2" xfId="2" xr:uid="{AE1802F4-EEB2-4A60-A0A8-4150ACC76CC5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,24 +1564,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A821EDA7-C1D7-45AC-B36C-383C949E67E7}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="I40" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="7" width="27" customWidth="1"/>
-    <col min="8" max="11" width="27" style="5" customWidth="1"/>
-    <col min="12" max="14" width="27" customWidth="1"/>
+    <col min="8" max="13" width="27" style="5" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
     <col min="15" max="15" width="27" style="5" customWidth="1"/>
     <col min="16" max="18" width="27" customWidth="1"/>
     <col min="19" max="19" width="27" style="5" customWidth="1"/>
     <col min="20" max="20" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -613,16 +1615,16 @@
       <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -637,11 +1639,8 @@
       <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -667,26 +1666,25 @@
         <v>26</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2004</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="str">
-        <f>"0821505710"</f>
-        <v>0821505710</v>
+      <c r="M2" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="5">
-        <v>11</v>
+      <c r="O2" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
@@ -701,7 +1699,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -726,27 +1724,26 @@
       <c r="H3" s="5">
         <v>19</v>
       </c>
-      <c r="I3" s="5">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2005</v>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="str">
-        <f>"0999999999"</f>
-        <v>0999999999</v>
+      <c r="M3" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="5">
-        <v>12</v>
+      <c r="O3" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -761,7 +1758,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -786,27 +1783,26 @@
       <c r="H4" s="5">
         <v>7</v>
       </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <v>2005</v>
+      <c r="I4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="str">
-        <f>"07777777777"</f>
-        <v>07777777777</v>
+      <c r="M4" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="5">
-        <v>13</v>
+      <c r="O4" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -821,9 +1817,2777 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="8">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="8">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="8">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="8">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="8">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="8">
+        <v>22</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="8">
+        <v>22</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="8">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="8">
+        <v>24</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S10" s="8">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="8">
+        <v>12</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" s="8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="8">
+        <v>20</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S12" s="8">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="8">
+        <v>28</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" s="8">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="8">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" s="8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S15" s="8">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="8">
+        <v>10</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="8">
+        <v>15</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S17" s="8">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S18" s="8">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="8">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S19" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="8">
+        <v>10</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S20" s="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="8">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S21" s="8">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="8">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="8">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="8">
+        <v>8</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S23" s="8">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="8">
+        <v>4</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" s="8">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="8">
+        <v>30</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S25" s="8">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="8">
+        <v>26</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S26" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="8">
+        <v>8</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S27" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="8">
+        <v>29</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S28" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="8">
+        <v>30</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S29" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="8">
+        <v>2</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S30" s="8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="8">
+        <v>30</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S31" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="8">
+        <v>10</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S32" s="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="S33" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="8">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" s="8">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="8">
+        <v>22</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="S35" s="8">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="8">
+        <v>30</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S36" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="8">
+        <v>18</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S37" s="8">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="8">
+        <v>14</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S38" s="8">
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="8">
+        <v>19</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S39" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="8">
+        <v>13</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S40" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="8">
+        <v>26</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S41" s="8">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="8">
+        <v>6</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R42" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S42" s="8">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="8">
+        <v>4</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S43" s="8">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="8">
+        <v>9</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="S44" s="8">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="8">
+        <v>21</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S45" s="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="8">
+        <v>3</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S46" s="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="8">
+        <v>26</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R47" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S47" s="8">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="8">
+        <v>10</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S48" s="8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" s="8">
+        <v>4</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S49" s="8">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="8">
+        <v>31</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="S50" s="8">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="8">
+        <v>2</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S51" s="8">
+        <v>83000</v>
       </c>
     </row>
   </sheetData>
